--- a/audit-SEO - Olivier BASQUIN.xlsx
+++ b/audit-SEO - Olivier BASQUIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierbasquin/Desktop/Olivierbasquin_4_05042021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967CD0B0-6995-7747-B366-CBB92B680882}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7795C482-4BF8-A447-88E9-3335B3DC870C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-17440" windowWidth="51200" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-102400" yWindow="-18420" windowWidth="51200" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>Catégorie</t>
   </si>
@@ -295,6 +295,15 @@
   </si>
   <si>
     <t>A de nombreux endroits sur les deux pages, le taux de contraste n'est pas suffisant pour assurer une bonne visibilité des textes</t>
+  </si>
+  <si>
+    <t>équivalents textuels manquant au niveau des logos "réseaux sociaux"</t>
+  </si>
+  <si>
+    <t>Il n'y a pas d'équivalent textuel permettant aux malvoyants de comprendre les logos "réseaux sociaux". Ils ne pourront donc s'y rendre facilement</t>
+  </si>
+  <si>
+    <t>Il faut utiliser les propriétés ARIA appropriées comme "aria-label"</t>
   </si>
 </sst>
 </file>
@@ -649,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1054,13 +1063,23 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
@@ -2346,6 +2365,7 @@
     <hyperlink ref="F18" r:id="rId17" xr:uid="{0376EB5D-9A15-9541-9B85-638BD80759F6}"/>
     <hyperlink ref="F19" r:id="rId18" xr:uid="{5945FEF5-C3C5-8042-8152-22B26EBBEDD4}"/>
     <hyperlink ref="F20" r:id="rId19" xr:uid="{A9FD9CA9-981D-7D49-9075-EE301185E46E}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{A8FD1F7A-F7C9-F14F-BF48-12A14A68A146}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/audit-SEO - Olivier BASQUIN.xlsx
+++ b/audit-SEO - Olivier BASQUIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierbasquin/Desktop/Olivierbasquin_4_05042021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7795C482-4BF8-A447-88E9-3335B3DC870C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0355D0-BC00-6A42-94A4-49D0CDC79862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-102400" yWindow="-18420" windowWidth="51200" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-102400" yWindow="-18920" windowWidth="25380" windowHeight="28800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/audit-SEO - Olivier BASQUIN.xlsx
+++ b/audit-SEO - Olivier BASQUIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierbasquin/Desktop/Olivierbasquin_4_05042021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0355D0-BC00-6A42-94A4-49D0CDC79862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE8F68C-6FEB-C248-8DC5-685F55BF77EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-102400" yWindow="-18920" windowWidth="25380" windowHeight="28800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-99860" yWindow="-18420" windowWidth="42700" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
   <si>
     <t>Catégorie</t>
   </si>
@@ -151,11 +151,6 @@
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le texte du libellé n'est pas seulement associé visuellement au champ, il est techniquement associé avec le champ. Ainsi, lorsque l'utilisateur a le focus sur le champ, un lecteur d'écran pourra énoncer le contenu du libellé et permettre à l'utilisateur de disposer d'un meilleur contexte.
-Vous pouvez cliquer sur le libellé pour passer le focus voire activer le champ. De cette façon, on dispose d'une meilleure ergonomie car la surface d'utilisation du champ est agrandie, ce qui s'avère utile sur les petits appareils comme les téléphones portables.
-</t>
   </si>
   <si>
     <t>https://www.journalducm.com/balise-meta-description/</t>
@@ -304,13 +299,20 @@
   </si>
   <si>
     <t>Il faut utiliser les propriétés ARIA appropriées comme "aria-label"</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Le texte du libellé n'est pas seulement associé visuellement au champ, il est techniquement associé avec le champ. Ainsi, lorsque l'utilisateur a le focus sur le champ, un lecteur d'écran pourra énoncer le contenu du libellé et permettre à l'utilisateur de disposer d'un meilleur contexte.
+Vous pouvez cliquer sur le libellé pour passer le focus voire activer le champ. De cette façon, on dispose d'une meilleure ergonomie car la surface d'utilisation du champ est agrandie, ce qui s'avère utile sur les petits appareils comme les téléphones portables.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,28 +348,22 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="48"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="48"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,8 +376,14 @@
         <bgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -396,49 +398,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -659,18 +677,19 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="69.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="65.85546875" customWidth="1"/>
-    <col min="7" max="26" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="60.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="94.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21" style="5" customWidth="1"/>
+    <col min="6" max="6" width="65.85546875" style="5" customWidth="1"/>
+    <col min="7" max="26" width="10.5703125" style="5" customWidth="1"/>
+    <col min="27" max="16384" width="11.28515625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -713,693 +732,717 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="E3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="4" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="6" spans="1:26" s="4" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="4" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="4" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="4" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="4" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="4" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="4" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="5" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="5" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="5" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="5" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="D19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="5" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="5" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="5" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="5" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="5" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="5" customFormat="1" ht="146" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="B20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="5" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="5" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="C21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/audit-SEO - Olivier BASQUIN.xlsx
+++ b/audit-SEO - Olivier BASQUIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierbasquin/Desktop/Olivierbasquin_4_05042021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE8F68C-6FEB-C248-8DC5-685F55BF77EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29880894-A8B6-4B40-9869-656B856F30C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-99860" yWindow="-18420" windowWidth="42700" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46380" yWindow="-17440" windowWidth="42700" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>Catégorie</t>
   </si>
@@ -81,9 +81,6 @@
     <t>SEO + Accessibilité</t>
   </si>
   <si>
-    <t>Les balises "alt" des images sont complétées de la mauvaise façon.</t>
-  </si>
-  <si>
     <t>Les balises "alt" doivent décrire le contenu de l'image dans le but de le retranscrire aux personnes malvoyantes</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Accessibilité</t>
   </si>
   <si>
-    <t>Pour faciliter l'accessibilité du site il faut utiliser les éléments structurants suivant : Header, nav, main, section, article, aside, footer...</t>
-  </si>
-  <si>
     <t>Les page de code CSS et Javascript peuvent être minifiées</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
   </si>
   <si>
     <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941044-inspectez-manuellement-le-contenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La taille des image n'est adaptée à leur conteneur </t>
   </si>
   <si>
     <t>Appliquer un redimensionnement sous CSS fonctionne mais demande beaucoup de ressources et génère donc un temps de chargement plus long.</t>
@@ -238,10 +229,6 @@
   </si>
   <si>
     <t>Il faut donner un nom de page ayant du sens et en rapport avec le contenu de la page. Le titre doit contenir le mot clé pour optimiser le référencement du moteur de recherche</t>
-  </si>
-  <si>
-    <t>Il est  indispensable de bien renseigner la description. Il faut résumer en un minimum de mots, ce à quoi devra s'attendre l'internaute après avoir cliqué. Il ne faut donc ni survendre le contenu, ni le sous-évalué... mais plutôt jouer avec des questions où les réponses seront abordées au sein de l'article.
-La description doit contenir le mot clé pour optimiser le référencement du moteur de recherche</t>
   </si>
   <si>
     <t>En l'état le site ne possède pas de rubrique régulièrement mise à jour permettant d'être mieux référencé par Google.</t>
@@ -258,16 +245,7 @@
     <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Les balises "alt" reprennent des mos clés et ne décrivent pas l'image ce qui pénalise l'accessibilité du site. Cela s'apparente à des pratiques dîtes "black hat".</t>
-  </si>
-  <si>
     <t xml:space="preserve">Optimisation globale des Balises </t>
-  </si>
-  <si>
-    <t>Le code HTML est constitué de balises "div" y compris pour les éléments de structure indispensables à l'accessibilité du site</t>
   </si>
   <si>
     <t>Afin d'optimiser la vitesse de chargement du site, il est préférable de redimensionner les images en amont</t>
@@ -301,11 +279,28 @@
     <t>Il faut utiliser les propriétés ARIA appropriées comme "aria-label"</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Le texte du libellé n'est pas seulement associé visuellement au champ, il est techniquement associé avec le champ. Ainsi, lorsque l'utilisateur a le focus sur le champ, un lecteur d'écran pourra énoncer le contenu du libellé et permettre à l'utilisateur de disposer d'un meilleur contexte.
 Vous pouvez cliquer sur le libellé pour passer le focus voire activer le champ. De cette façon, on dispose d'une meilleure ergonomie car la surface d'utilisation du champ est agrandie, ce qui s'avère utile sur les petits appareils comme les téléphones portables.</t>
+  </si>
+  <si>
+    <t>Il est  indispensable de bien renseigner la description. Il faut résumer en un minimum de mots, ce à quoi devra s'attendre l'internaute après avoir cliqué. Il ne faut donc ni survendre le contenu, ni le sous-évalué... mais plutôt jouer avec des questions.
+La description doit contenir le mot clé pour optimiser le référencement du moteur de recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La taille des image n'est pas adaptée à leur conteneur </t>
+  </si>
+  <si>
+    <t>Le code HTML est constitué de balises "div" y compris pour les éléments de structure indispensables à la compréhension du site par Google</t>
+  </si>
+  <si>
+    <t>Pour faciliter la compréhension du site par Google et l'accessibilité du site il faut utiliser les éléments structurants suivant : Header, nav, main, section, article, aside, footer...</t>
+  </si>
+  <si>
+    <t>Les titres et les balises "alt" des images sont complétées de la mauvaise façon.</t>
+  </si>
+  <si>
+    <t>Les titres des photos ne sont pas assez explicites.
+Les balises "alt" reprennent uniquement des mots clés et ne décrivent pas l'image. Cela pénalise l'accessibilité du site et  s'apparente à des pratiques dîtes "black hat".</t>
   </si>
 </sst>
 </file>
@@ -363,7 +358,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,8 +377,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -413,12 +432,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,11 +508,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -677,7 +775,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -732,396 +830,390 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>87</v>
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="4" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="G2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="23"/>
       <c r="F3" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="4" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="4" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>87</v>
+      <c r="B4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="19">
+        <v>2</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="4" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>87</v>
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="21">
+        <v>3</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="4" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="4" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="22"/>
       <c r="F6" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="4" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="19">
+        <v>4</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E9" s="16">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="4" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="19">
+        <v>6</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="16">
+        <v>7</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="19">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="4" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="4" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="B13" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C13" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="4" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="D13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="20">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="4" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="4" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="B14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="19">
+        <v>10</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="4" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="4" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="4" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="4" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="4" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="4" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>6</v>
-      </c>
       <c r="B16" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>87</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>21</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1293,156 +1385,156 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2388,26 +2480,30 @@
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{3D4FCE21-E722-1C49-964A-1624F7558DA6}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{3DE54136-4453-FF42-9041-65AC25573CD8}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{438FE989-A210-CC44-9C3B-7188DB4792AF}"/>
-    <hyperlink ref="F11" r:id="rId4" xr:uid="{03BB6979-5175-E74B-A65A-3A3CAA2ECEF1}"/>
-    <hyperlink ref="F12" r:id="rId5" xr:uid="{BE7A400F-2592-8246-B1DE-0231954F5E08}"/>
-    <hyperlink ref="F3" r:id="rId6" xr:uid="{16CEB833-2C36-9540-A518-5397D35F019F}"/>
-    <hyperlink ref="F4" r:id="rId7" xr:uid="{220DCDF8-765A-B94A-9788-BDF07C5134D7}"/>
-    <hyperlink ref="F6" r:id="rId8" xr:uid="{5ED6CD1F-A254-B94E-B746-17ADCC926976}"/>
-    <hyperlink ref="F7" r:id="rId9" xr:uid="{664652A8-54FB-A74D-BDCF-DB4E379331D6}"/>
-    <hyperlink ref="F8" r:id="rId10" xr:uid="{2F1E63FA-C1F0-A048-98A2-2320DA2D9158}"/>
-    <hyperlink ref="G9" r:id="rId11" xr:uid="{F98F9379-CEC1-424B-A5E0-F0020FBAB798}"/>
-    <hyperlink ref="F9" r:id="rId12" xr:uid="{389294FB-9ADE-4240-B077-E63B50ED7F0B}"/>
-    <hyperlink ref="F13" r:id="rId13" xr:uid="{1DCDF660-F1FC-1A4F-996F-2379D7A1358B}"/>
-    <hyperlink ref="F15" r:id="rId14" display="https://developer.mozilla.org/fr/docs/Learn/HTML/Multimedia_and_embedding/Images_in_HTML" xr:uid="{6BEACB5E-CDEA-6A4C-8CE7-CA10D8CD4B74}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{98FE846E-D7E9-2F40-8FEA-6995C88A192A}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{5B69541A-DC53-CC49-9E30-98F84227D668}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{0376EB5D-9A15-9541-9B85-638BD80759F6}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{5945FEF5-C3C5-8042-8152-22B26EBBEDD4}"/>
-    <hyperlink ref="F20" r:id="rId19" xr:uid="{A9FD9CA9-981D-7D49-9075-EE301185E46E}"/>
+    <hyperlink ref="F17" r:id="rId1" xr:uid="{3D4FCE21-E722-1C49-964A-1624F7558DA6}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{3DE54136-4453-FF42-9041-65AC25573CD8}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{438FE989-A210-CC44-9C3B-7188DB4792AF}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{03BB6979-5175-E74B-A65A-3A3CAA2ECEF1}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{BE7A400F-2592-8246-B1DE-0231954F5E08}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{16CEB833-2C36-9540-A518-5397D35F019F}"/>
+    <hyperlink ref="F16" r:id="rId7" xr:uid="{220DCDF8-765A-B94A-9788-BDF07C5134D7}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{5ED6CD1F-A254-B94E-B746-17ADCC926976}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{664652A8-54FB-A74D-BDCF-DB4E379331D6}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{2F1E63FA-C1F0-A048-98A2-2320DA2D9158}"/>
+    <hyperlink ref="G4" r:id="rId11" xr:uid="{F98F9379-CEC1-424B-A5E0-F0020FBAB798}"/>
+    <hyperlink ref="F4" r:id="rId12" xr:uid="{389294FB-9ADE-4240-B077-E63B50ED7F0B}"/>
+    <hyperlink ref="F12" r:id="rId13" xr:uid="{1DCDF660-F1FC-1A4F-996F-2379D7A1358B}"/>
+    <hyperlink ref="F10" r:id="rId14" display="https://developer.mozilla.org/fr/docs/Learn/HTML/Multimedia_and_embedding/Images_in_HTML" xr:uid="{6BEACB5E-CDEA-6A4C-8CE7-CA10D8CD4B74}"/>
+    <hyperlink ref="F18" r:id="rId15" xr:uid="{98FE846E-D7E9-2F40-8FEA-6995C88A192A}"/>
+    <hyperlink ref="F19" r:id="rId16" xr:uid="{5B69541A-DC53-CC49-9E30-98F84227D668}"/>
+    <hyperlink ref="F20" r:id="rId17" xr:uid="{0376EB5D-9A15-9541-9B85-638BD80759F6}"/>
+    <hyperlink ref="F14" r:id="rId18" xr:uid="{5945FEF5-C3C5-8042-8152-22B26EBBEDD4}"/>
+    <hyperlink ref="F13" r:id="rId19" xr:uid="{A9FD9CA9-981D-7D49-9075-EE301185E46E}"/>
     <hyperlink ref="F21" r:id="rId20" xr:uid="{A8FD1F7A-F7C9-F14F-BF48-12A14A68A146}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/audit-SEO - Olivier BASQUIN.xlsx
+++ b/audit-SEO - Olivier BASQUIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierbasquin/Desktop/Olivierbasquin_4_05042021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29880894-A8B6-4B40-9869-656B856F30C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E940085-8383-E940-AFDD-8112E63D13AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46380" yWindow="-17440" windowWidth="42700" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>Catégorie</t>
   </si>
@@ -81,9 +81,6 @@
     <t>SEO + Accessibilité</t>
   </si>
   <si>
-    <t>Les balises "alt" doivent décrire le contenu de l'image dans le but de le retranscrire aux personnes malvoyantes</t>
-  </si>
-  <si>
     <t>Problème de logique dans la hiérarchisation des titres H1, H2, H3</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
   </si>
   <si>
     <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages</t>
-  </si>
-  <si>
-    <t>https://www.redacteur.com/blog/seo-balise-alt-images/</t>
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements</t>
@@ -296,11 +290,35 @@
     <t>Pour faciliter la compréhension du site par Google et l'accessibilité du site il faut utiliser les éléments structurants suivant : Header, nav, main, section, article, aside, footer...</t>
   </si>
   <si>
-    <t>Les titres et les balises "alt" des images sont complétées de la mauvaise façon.</t>
-  </si>
-  <si>
-    <t>Les titres des photos ne sont pas assez explicites.
-Les balises "alt" reprennent uniquement des mots clés et ne décrivent pas l'image. Cela pénalise l'accessibilité du site et  s'apparente à des pratiques dîtes "black hat".</t>
+    <t>La liste des liens est non pertinente</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578347-trouvez-vos-premiers-backlinks</t>
+  </si>
+  <si>
+    <t>Les liens présents dans le footer sont non pertinents:
+- Les partenaires sont très éloignés du cœur d'activité de La Chouette Agence. 
+-La liste d'Annuaires n'a pas un grand intérêt et présente des liens suspects. Il convient de les supprimer et de construire une stratégie plus virtueuse.</t>
+  </si>
+  <si>
+    <t>Procéder à des échanges de liens avec des sites dans le même secteur d'activité, mais qui ne sont pas des concurents directs.
+Le mieux est toujours d'offrir ou d'apporter un contenu utile à de potentiels partenaires (Proposer de leur écrire un article sur notre expertise, ou d'envoyer une infographie...)
+Créer sa chaine Youtube, Viméo, Dailymotion...et créer des liens</t>
+  </si>
+  <si>
+    <t>-Les titres de certaines photos ne sont pas explicites. Les moteurs de recherche ne pourront pas les référencer correctement.
+-Les balises "alt" reprennent uniquement des mots clés et ne décrivent pas l'image. Cela pénalise l'accessibilité du site et  s'apparente à des pratiques dîtes "black hat".</t>
+  </si>
+  <si>
+    <t>Les titres et les balises "alt" des images sont complétés de la mauvaise façon.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/1603881-apprenez-a-creer-votre-site-web-avec-html5-et-css3/1604791-inserez-des-images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Le nom de l'image doit être représentatif de son contenu
+- Les balises "alt" doivent indiquer un texte alternatif à l'image, c'est-à-dire un court texte qui décrit ce que contient l'image. Ce texte sera affiché à la place de l'image si celle-ci ne peut pas être téléchargée (cela arrive), ou dans les navigateurs de personnes handicapées (non-voyants) qui ne peuvent malheureusement pas « voir » l'image. 
+Ces deux points aident les robots des moteurs de recherche pour les recherches d'images. </t>
   </si>
 </sst>
 </file>
@@ -358,7 +376,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,12 +410,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,10 +562,16 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -774,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -835,22 +853,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>33</v>
       </c>
       <c r="E2" s="21">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
@@ -858,17 +876,17 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="4" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -876,22 +894,22 @@
         <v>6</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="19">
         <v>2</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="4" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -905,13 +923,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="21">
         <v>3</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="4" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
@@ -922,14 +940,14 @@
         <v>12</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -947,27 +965,27 @@
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="4" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="4" customFormat="1" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="19">
+        <v>88</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="16">
         <v>4</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>40</v>
+      <c r="F8" s="30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
@@ -975,19 +993,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="E9" s="16">
         <v>5</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="4" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -995,19 +1013,19 @@
         <v>15</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="E10" s="19">
         <v>6</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
@@ -1015,19 +1033,19 @@
         <v>15</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="16">
         <v>7</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
@@ -1035,39 +1053,39 @@
         <v>15</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="19">
         <v>8</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="4" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="20">
         <v>9</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="4" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1075,154 +1093,164 @@
         <v>6</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" s="19">
         <v>10</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="4" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="4" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="4" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="4" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="B17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="4" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -2485,26 +2513,26 @@
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1" xr:uid="{3D4FCE21-E722-1C49-964A-1624F7558DA6}"/>
+    <hyperlink ref="F18" r:id="rId1" xr:uid="{3D4FCE21-E722-1C49-964A-1624F7558DA6}"/>
     <hyperlink ref="F7" r:id="rId2" xr:uid="{3DE54136-4453-FF42-9041-65AC25573CD8}"/>
     <hyperlink ref="F5" r:id="rId3" xr:uid="{438FE989-A210-CC44-9C3B-7188DB4792AF}"/>
     <hyperlink ref="F2" r:id="rId4" xr:uid="{03BB6979-5175-E74B-A65A-3A3CAA2ECEF1}"/>
     <hyperlink ref="F3" r:id="rId5" xr:uid="{BE7A400F-2592-8246-B1DE-0231954F5E08}"/>
     <hyperlink ref="F6" r:id="rId6" xr:uid="{16CEB833-2C36-9540-A518-5397D35F019F}"/>
-    <hyperlink ref="F16" r:id="rId7" xr:uid="{220DCDF8-765A-B94A-9788-BDF07C5134D7}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{5ED6CD1F-A254-B94E-B746-17ADCC926976}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{664652A8-54FB-A74D-BDCF-DB4E379331D6}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{2F1E63FA-C1F0-A048-98A2-2320DA2D9158}"/>
-    <hyperlink ref="G4" r:id="rId11" xr:uid="{F98F9379-CEC1-424B-A5E0-F0020FBAB798}"/>
-    <hyperlink ref="F4" r:id="rId12" xr:uid="{389294FB-9ADE-4240-B077-E63B50ED7F0B}"/>
-    <hyperlink ref="F12" r:id="rId13" xr:uid="{1DCDF660-F1FC-1A4F-996F-2379D7A1358B}"/>
-    <hyperlink ref="F10" r:id="rId14" display="https://developer.mozilla.org/fr/docs/Learn/HTML/Multimedia_and_embedding/Images_in_HTML" xr:uid="{6BEACB5E-CDEA-6A4C-8CE7-CA10D8CD4B74}"/>
-    <hyperlink ref="F18" r:id="rId15" xr:uid="{98FE846E-D7E9-2F40-8FEA-6995C88A192A}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{5B69541A-DC53-CC49-9E30-98F84227D668}"/>
-    <hyperlink ref="F20" r:id="rId17" xr:uid="{0376EB5D-9A15-9541-9B85-638BD80759F6}"/>
-    <hyperlink ref="F14" r:id="rId18" xr:uid="{5945FEF5-C3C5-8042-8152-22B26EBBEDD4}"/>
-    <hyperlink ref="F13" r:id="rId19" xr:uid="{A9FD9CA9-981D-7D49-9075-EE301185E46E}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{A8FD1F7A-F7C9-F14F-BF48-12A14A68A146}"/>
+    <hyperlink ref="F17" r:id="rId7" xr:uid="{220DCDF8-765A-B94A-9788-BDF07C5134D7}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{664652A8-54FB-A74D-BDCF-DB4E379331D6}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{2F1E63FA-C1F0-A048-98A2-2320DA2D9158}"/>
+    <hyperlink ref="G4" r:id="rId10" xr:uid="{F98F9379-CEC1-424B-A5E0-F0020FBAB798}"/>
+    <hyperlink ref="F4" r:id="rId11" xr:uid="{389294FB-9ADE-4240-B077-E63B50ED7F0B}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{1DCDF660-F1FC-1A4F-996F-2379D7A1358B}"/>
+    <hyperlink ref="F10" r:id="rId13" display="https://developer.mozilla.org/fr/docs/Learn/HTML/Multimedia_and_embedding/Images_in_HTML" xr:uid="{6BEACB5E-CDEA-6A4C-8CE7-CA10D8CD4B74}"/>
+    <hyperlink ref="F19" r:id="rId14" xr:uid="{98FE846E-D7E9-2F40-8FEA-6995C88A192A}"/>
+    <hyperlink ref="F20" r:id="rId15" xr:uid="{5B69541A-DC53-CC49-9E30-98F84227D668}"/>
+    <hyperlink ref="F21" r:id="rId16" xr:uid="{0376EB5D-9A15-9541-9B85-638BD80759F6}"/>
+    <hyperlink ref="F14" r:id="rId17" xr:uid="{5945FEF5-C3C5-8042-8152-22B26EBBEDD4}"/>
+    <hyperlink ref="F13" r:id="rId18" xr:uid="{A9FD9CA9-981D-7D49-9075-EE301185E46E}"/>
+    <hyperlink ref="F22" r:id="rId19" xr:uid="{A8FD1F7A-F7C9-F14F-BF48-12A14A68A146}"/>
+    <hyperlink ref="F8" r:id="rId20" xr:uid="{1CBDBA31-7739-C54C-9A42-1496A35E4DE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/audit-SEO - Olivier BASQUIN.xlsx
+++ b/audit-SEO - Olivier BASQUIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierbasquin/Desktop/Olivierbasquin_4_05042021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E940085-8383-E940-AFDD-8112E63D13AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04714616-75BB-664A-B6D5-524DAB3DFB8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-17440" windowWidth="37200" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -172,12 +172,6 @@
     <t>Utilisation d'images pour insérer du texte</t>
   </si>
   <si>
-    <t>Certains textes sont contenus dans une image. Google ne peut interpréter le texte contenu dans l'image. Le poids d'une image est bien supérieur à celui d'un texte.</t>
-  </si>
-  <si>
-    <t>Les textes doivent être perçu via l'ouïe (lecteur d'écran), ce qui n'est pas possible lorsqu'il est contenu dans une image. Il convient de remplacer l'image par du texte en html.</t>
-  </si>
-  <si>
     <t>https://developer.mozilla.org/fr/docs/Learn/HTML/Multimedia_and_embedding/Images_in_HTML
 https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940878-decouvrez-les-exigences-en-matiere-daccessibilite</t>
   </si>
@@ -287,23 +281,10 @@
     <t>Le code HTML est constitué de balises "div" y compris pour les éléments de structure indispensables à la compréhension du site par Google</t>
   </si>
   <si>
-    <t>Pour faciliter la compréhension du site par Google et l'accessibilité du site il faut utiliser les éléments structurants suivant : Header, nav, main, section, article, aside, footer...</t>
-  </si>
-  <si>
     <t>La liste des liens est non pertinente</t>
   </si>
   <si>
     <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578347-trouvez-vos-premiers-backlinks</t>
-  </si>
-  <si>
-    <t>Les liens présents dans le footer sont non pertinents:
-- Les partenaires sont très éloignés du cœur d'activité de La Chouette Agence. 
--La liste d'Annuaires n'a pas un grand intérêt et présente des liens suspects. Il convient de les supprimer et de construire une stratégie plus virtueuse.</t>
-  </si>
-  <si>
-    <t>Procéder à des échanges de liens avec des sites dans le même secteur d'activité, mais qui ne sont pas des concurents directs.
-Le mieux est toujours d'offrir ou d'apporter un contenu utile à de potentiels partenaires (Proposer de leur écrire un article sur notre expertise, ou d'envoyer une infographie...)
-Créer sa chaine Youtube, Viméo, Dailymotion...et créer des liens</t>
   </si>
   <si>
     <t>-Les titres de certaines photos ne sont pas explicites. Les moteurs de recherche ne pourront pas les référencer correctement.
@@ -319,6 +300,25 @@
     <t xml:space="preserve">- Le nom de l'image doit être représentatif de son contenu
 - Les balises "alt" doivent indiquer un texte alternatif à l'image, c'est-à-dire un court texte qui décrit ce que contient l'image. Ce texte sera affiché à la place de l'image si celle-ci ne peut pas être téléchargée (cela arrive), ou dans les navigateurs de personnes handicapées (non-voyants) qui ne peuvent malheureusement pas « voir » l'image. 
 Ces deux points aident les robots des moteurs de recherche pour les recherches d'images. </t>
+  </si>
+  <si>
+    <t>Certains textes sont contenus dans des images. Google ne peut interpréter le texte contenu dans l'image et le poids d'une image est bien supérieur à celui d'un texte.</t>
+  </si>
+  <si>
+    <t>Les textes doivent être perçus via l'ouïe (lecteur d'écran), ce qui n'est pas possible lorsqu'il est contenu dans une image. Il convient de remplacer l'image par du texte en html.</t>
+  </si>
+  <si>
+    <t>Pour faciliter la compréhension du site par Google et l'accessibilité du site il faut utiliser les balises suivantes : Header, nav, main, section, article, aside, footer...</t>
+  </si>
+  <si>
+    <t>Les liens présents dans le footer sont non pertinents:
+- Les partenaires sont très éloignés du cœur d'activité de La Chouette Agence. 
+-Les listes d'Annuaires n'ont pas un grand intérêt et présente des liens suspects. Il convient de les supprimer et de construire une stratégie plus vertueuse.</t>
+  </si>
+  <si>
+    <t>Procéder à des échanges de liens avec des sites dans le même secteur d'activité, mais qui ne sont pas des concurrents directs.
+Le mieux est toujours d'offrir ou d'apporter un contenu utile à de potentiels partenaires (Proposer de leur écrire un article sur notre expertise, ou d'envoyer une infographie...)
+Créer sa chaine Youtube, Viméo, Dailymotion...et créer des liens</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -876,13 +876,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="10" t="s">
@@ -923,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="21">
         <v>3</v>
@@ -943,7 +943,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="10" t="s">
@@ -973,19 +973,19 @@
         <v>15</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E8" s="16">
         <v>4</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
@@ -1016,16 +1016,16 @@
         <v>45</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E10" s="19">
         <v>6</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
@@ -1033,13 +1033,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E11" s="16">
         <v>7</v>
@@ -1048,44 +1048,44 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" s="4" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="19">
+        <v>63</v>
+      </c>
+      <c r="E12" s="20">
         <v>8</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="4" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="4" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="20">
+        <v>90</v>
+      </c>
+      <c r="E13" s="16">
         <v>9</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>66</v>
+      <c r="F13" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="4" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1093,37 +1093,37 @@
         <v>6</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="19">
         <v>10</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="4" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="27" t="s">
-        <v>84</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="4" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
@@ -1134,10 +1134,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="10" t="s">
@@ -1149,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>13</v>
@@ -1185,17 +1185,17 @@
         <v>6</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -1203,17 +1203,17 @@
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
@@ -1221,17 +1221,17 @@
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1239,17 +1239,17 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2524,13 +2524,13 @@
     <hyperlink ref="F11" r:id="rId9" xr:uid="{2F1E63FA-C1F0-A048-98A2-2320DA2D9158}"/>
     <hyperlink ref="G4" r:id="rId10" xr:uid="{F98F9379-CEC1-424B-A5E0-F0020FBAB798}"/>
     <hyperlink ref="F4" r:id="rId11" xr:uid="{389294FB-9ADE-4240-B077-E63B50ED7F0B}"/>
-    <hyperlink ref="F12" r:id="rId12" xr:uid="{1DCDF660-F1FC-1A4F-996F-2379D7A1358B}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{1DCDF660-F1FC-1A4F-996F-2379D7A1358B}"/>
     <hyperlink ref="F10" r:id="rId13" display="https://developer.mozilla.org/fr/docs/Learn/HTML/Multimedia_and_embedding/Images_in_HTML" xr:uid="{6BEACB5E-CDEA-6A4C-8CE7-CA10D8CD4B74}"/>
     <hyperlink ref="F19" r:id="rId14" xr:uid="{98FE846E-D7E9-2F40-8FEA-6995C88A192A}"/>
     <hyperlink ref="F20" r:id="rId15" xr:uid="{5B69541A-DC53-CC49-9E30-98F84227D668}"/>
     <hyperlink ref="F21" r:id="rId16" xr:uid="{0376EB5D-9A15-9541-9B85-638BD80759F6}"/>
     <hyperlink ref="F14" r:id="rId17" xr:uid="{5945FEF5-C3C5-8042-8152-22B26EBBEDD4}"/>
-    <hyperlink ref="F13" r:id="rId18" xr:uid="{A9FD9CA9-981D-7D49-9075-EE301185E46E}"/>
+    <hyperlink ref="F12" r:id="rId18" xr:uid="{A9FD9CA9-981D-7D49-9075-EE301185E46E}"/>
     <hyperlink ref="F22" r:id="rId19" xr:uid="{A8FD1F7A-F7C9-F14F-BF48-12A14A68A146}"/>
     <hyperlink ref="F8" r:id="rId20" xr:uid="{1CBDBA31-7739-C54C-9A42-1496A35E4DE2}"/>
   </hyperlinks>

--- a/audit-SEO - Olivier BASQUIN.xlsx
+++ b/audit-SEO - Olivier BASQUIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierbasquin/Desktop/Olivierbasquin_4_05042021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04714616-75BB-664A-B6D5-524DAB3DFB8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996142C8-8749-9847-ADD7-20D1AA2423DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-17440" windowWidth="37200" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t>Catégorie</t>
   </si>
@@ -319,6 +319,56 @@
     <t>Procéder à des échanges de liens avec des sites dans le même secteur d'activité, mais qui ne sont pas des concurrents directs.
 Le mieux est toujours d'offrir ou d'apporter un contenu utile à de potentiels partenaires (Proposer de leur écrire un article sur notre expertise, ou d'envoyer une infographie...)
 Créer sa chaine Youtube, Viméo, Dailymotion...et créer des liens</t>
+  </si>
+  <si>
+    <t>Mentions légales et politique de confidentialité</t>
+  </si>
+  <si>
+    <t>Les mentions obligatoires exigées sur un site internet professionnel varient selon le type de professionnels et le type d'activités. Le professionnel peut être un entrepreneur individuel ou une société. Et ils peuvent exercer une activité commerciale, une activité artisanale ou une activité réglementée.
+Répondez aux questions successives et les réponses s’afficheront automatiquement
+vous avez choisiSociété Modifier
+vous avez choisiActivité commerciale Modifier
+Identification
+Sur le site d'une société, on doit avoir les mentions suivantes :
+Dénomination sociale ou raison sociale
+Adresse du siège social
+Numéro de téléphone et adresse de courrier électronique
+Forme juridique de la société (SA, SARL, SNC, SAS, etc.)
+Montant du capital social
+Nom du directeur ou du codirecteur de la publication et celui du responsable de la rédaction s'il en existe
+Nom, dénomination ou raison sociale et adresse et numéro de téléphone de l'hébergeur de son site
+Activité
+Pour une activité commerciale, les mentions obligatoires sont les suivantes :
+Numéro d'inscription au registre du commerce et des sociétés
+Numéro individuel d'identification fiscale
+Conditions générales de vente (CGV) incluant le prix TTC en euros, les frais et date de livraison, les modalités de paiement, le service après vente, le droit de rétractation, la durée de l'offre, le coût de la communication à distance
+Mentions relatives à l'utilisation de cookies
+Un cookie est un petit fichier informatique, un traceur. Il permet d'analyser le comportement des usagers lors de la visite d'un site internet, de la lecture d'un courrier électronique, de l'installation ou de l'utilisation d'un logiciel ou d'une application mobile.
+Les éditeurs de sites ou d'applications qui utilisent des cookies doivent :
+informer les internautes de la finalité des cookies,
+obtenir leur consentement,
+fournir aux internautes un moyen de les refuser.
+La durée de validité du consentement donné dans ce cadre est de 13 mois maximum.
+Mentions relatives à l'utilisation de données personnelles
+Les sites qui utilisent des données personnelles doivent obligatoires mentionner les informations suivantes :
+Coordonnées du délégué à la protection des données (DPO ou DPD) de l'organisme, s'il a été désigné, ou d'un point de contact sur les questions de protection des données personnelles
+Finalité poursuivie par le traitement auquel les données sont destinées
+Caractère obligatoire ou facultatif des réponses et conséquences éventuelles à l'égard de l'internaute d'un défaut de réponse
+Destinataires ou catégories de destinataires des données
+Droits d'opposition, d'interrogation, d'accès et de rectification
+Au besoin, les transferts de données à caractère personnel envisagés à destination d'un État n'appartenant pas à l'Union européenne
+Base juridique du traitement de données (c'est-à-dire ce qui autorise légalement le traitement : il peut s'agir du consentement des personnes concernées, du respect d'une obligation prévue par un texte, de l'exécution d'un contrat notamment)
+Mention du droit d'introduire une réclamation (plainte) auprès de la Cnil</t>
+  </si>
+  <si>
+    <t>https://www.service-public.fr/professionnels-entreprises/vosdroits/F31228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tous les sites internet, qu'ils soient édités à titre professionnel ou à titre non professionnel, doivent afficher des mentions obligatoires pour l'information du public. Le non-respect de ces obligations est sanctionné:
+L'absence d'une information obligatoire est punie d'une amende de 1 500 €. Tout traitement informatique non consenti des données recueillies est puni de 5 ans d'emprisonnement et de 300 000 € d'amende.
+La CNIL, en tant que régulateur, a fait évoluer ses recommandations afin de donner plus de contrôle aux internautes sur l’utilisation de leurs données.  il ne s’agit plus simplement de prévenir l’internaute qu’en poursuivant sa navigation sur votre site il accepte l’utilisation de cookies. Il doit savoir qui collecte ses données et comprendre avec des mots simples comment vont être utilisées ses données. L’internaute doit aussi pouvoir refuser aussi simplement qu’accepter. Les cookies non essentiels au fonctionnement ne pourront pas être déposés sur son ordinateur s’il ne l’a pas accepté explicitement par une action. Autre changement, l’internaute doit être en mesure de retirer son consentement à tout moment. Cela signifie qu’un module ou un lien doit être facilement accessible par le visiteur de votre site s’il change éventuellement d’avis au cours de sa visite.
+Enfin, tous les exploitants des cookies doivent être en mesure de fournir, à tout moment, la preuve du recueil valable du consentement libre, éclairé, spécifique et univoque de l’utilisateur.
+</t>
   </si>
 </sst>
 </file>
@@ -486,7 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,6 +623,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -792,15 +869,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="60.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="94.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="21" style="5" customWidth="1"/>
     <col min="6" max="6" width="65.85546875" style="5" customWidth="1"/>
@@ -1252,29 +1329,39 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
@@ -2508,7 +2595,13 @@
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>

--- a/audit-SEO - Olivier BASQUIN.xlsx
+++ b/audit-SEO - Olivier BASQUIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierbasquin/Desktop/Olivierbasquin_4_05042021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996142C8-8749-9847-ADD7-20D1AA2423DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE654443-0C44-1743-88E9-1BE305964EA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-17440" windowWidth="37200" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -321,14 +321,17 @@
 Créer sa chaine Youtube, Viméo, Dailymotion...et créer des liens</t>
   </si>
   <si>
-    <t>Mentions légales et politique de confidentialité</t>
+    <t>https://www.service-public.fr/professionnels-entreprises/vosdroits/F31228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tous les sites internet, qu'ils soient édités à titre professionnel ou à titre non professionnel, doivent afficher des mentions obligatoires pour l'information du public. Le non-respect de ces obligations est sanctionné:
+L'absence d'une information obligatoire est punie d'une amende de 1 500 €. Tout traitement informatique non consenti des données recueillies est puni de 5 ans d'emprisonnement et de 300 000 € d'amende.
+La CNIL, en tant que régulateur, a fait évoluer ses recommandations afin de donner plus de contrôle aux internautes sur l’utilisation de leurs données.  il ne s’agit plus simplement de prévenir l’internaute qu’en poursuivant sa navigation sur votre site il accepte l’utilisation de cookies. Il doit savoir qui collecte ses données et comprendre avec des mots simples comment vont être utilisées ses données. L’internaute doit aussi pouvoir refuser aussi simplement qu’accepter. Les cookies non essentiels au fonctionnement ne pourront pas être déposés sur son ordinateur s’il ne l’a pas accepté explicitement par une action. Autre changement, l’internaute doit être en mesure de retirer son consentement à tout moment. Cela signifie qu’un module ou un lien doit être facilement accessible par le visiteur de votre site s’il change éventuellement d’avis au cours de sa visite.
+Enfin, tous les exploitants des cookies doivent être en mesure de fournir, à tout moment, la preuve du recueil valable du consentement libre, éclairé, spécifique et univoque de l’utilisateur.
+</t>
   </si>
   <si>
     <t>Les mentions obligatoires exigées sur un site internet professionnel varient selon le type de professionnels et le type d'activités. Le professionnel peut être un entrepreneur individuel ou une société. Et ils peuvent exercer une activité commerciale, une activité artisanale ou une activité réglementée.
-Répondez aux questions successives et les réponses s’afficheront automatiquement
-vous avez choisiSociété Modifier
-vous avez choisiActivité commerciale Modifier
-Identification
 Sur le site d'une société, on doit avoir les mentions suivantes :
 Dénomination sociale ou raison sociale
 Adresse du siège social
@@ -361,14 +364,7 @@
 Mention du droit d'introduire une réclamation (plainte) auprès de la Cnil</t>
   </si>
   <si>
-    <t>https://www.service-public.fr/professionnels-entreprises/vosdroits/F31228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tous les sites internet, qu'ils soient édités à titre professionnel ou à titre non professionnel, doivent afficher des mentions obligatoires pour l'information du public. Le non-respect de ces obligations est sanctionné:
-L'absence d'une information obligatoire est punie d'une amende de 1 500 €. Tout traitement informatique non consenti des données recueillies est puni de 5 ans d'emprisonnement et de 300 000 € d'amende.
-La CNIL, en tant que régulateur, a fait évoluer ses recommandations afin de donner plus de contrôle aux internautes sur l’utilisation de leurs données.  il ne s’agit plus simplement de prévenir l’internaute qu’en poursuivant sa navigation sur votre site il accepte l’utilisation de cookies. Il doit savoir qui collecte ses données et comprendre avec des mots simples comment vont être utilisées ses données. L’internaute doit aussi pouvoir refuser aussi simplement qu’accepter. Les cookies non essentiels au fonctionnement ne pourront pas être déposés sur son ordinateur s’il ne l’a pas accepté explicitement par une action. Autre changement, l’internaute doit être en mesure de retirer son consentement à tout moment. Cela signifie qu’un module ou un lien doit être facilement accessible par le visiteur de votre site s’il change éventuellement d’avis au cours de sa visite.
-Enfin, tous les exploitants des cookies doivent être en mesure de fournir, à tout moment, la preuve du recueil valable du consentement libre, éclairé, spécifique et univoque de l’utilisateur.
-</t>
+    <t>Pas de Mentions légales et politique de confidentialité</t>
   </si>
 </sst>
 </file>
@@ -870,7 +866,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E25"/>
+      <selection activeCell="D23" sqref="D23:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1334,17 +1330,17 @@
         <v>6</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">

--- a/audit-SEO - Olivier BASQUIN.xlsx
+++ b/audit-SEO - Olivier BASQUIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierbasquin/Desktop/Olivierbasquin_4_05042021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE654443-0C44-1743-88E9-1BE305964EA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE00358-212A-8643-A635-CE5C8316213B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-17440" windowWidth="37200" windowHeight="26720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>A de nombreux endroits sur les deux pages, le taux de contraste n'est pas suffisant pour assurer une bonne visibilité des textes</t>
-  </si>
-  <si>
-    <t>équivalents textuels manquant au niveau des logos "réseaux sociaux"</t>
   </si>
   <si>
     <t>Il n'y a pas d'équivalent textuel permettant aux malvoyants de comprendre les logos "réseaux sociaux". Ils ne pourront donc s'y rendre facilement</t>
@@ -365,6 +362,9 @@
   </si>
   <si>
     <t>Pas de Mentions légales et politique de confidentialité</t>
+  </si>
+  <si>
+    <t>Equivalents textuels manquant au niveau des logos "réseaux sociaux"</t>
   </si>
 </sst>
 </file>
@@ -590,6 +590,54 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -598,54 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -934,7 +934,7 @@
       <c r="D2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="37">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -949,7 +949,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>28</v>
@@ -957,7 +957,7 @@
       <c r="D3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="10" t="s">
         <v>29</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="D5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="37">
         <v>3</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -1016,9 +1016,9 @@
         <v>37</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="22"/>
+        <v>76</v>
+      </c>
+      <c r="E6" s="38"/>
       <c r="F6" s="10" t="s">
         <v>36</v>
       </c>
@@ -1036,7 +1036,7 @@
       <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="10" t="s">
         <v>38</v>
       </c>
@@ -1046,19 +1046,19 @@
         <v>15</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>85</v>
+      <c r="C8" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="E8" s="16">
         <v>4</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>84</v>
+      <c r="F8" s="27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
@@ -1089,10 +1089,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="E10" s="19">
         <v>6</v>
@@ -1109,10 +1109,10 @@
         <v>65</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="16">
         <v>7</v>
@@ -1146,19 +1146,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="E13" s="16">
         <v>9</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>81</v>
+      <c r="F13" s="24" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="4" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1185,16 +1185,16 @@
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="10" t="s">
         <v>42</v>
       </c>
@@ -1203,16 +1203,16 @@
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="26"/>
+      <c r="D16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="23"/>
       <c r="F16" s="10" t="s">
         <v>35</v>
       </c>
@@ -1312,13 +1312,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="10" t="s">
@@ -1326,37 +1326,37 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="208" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="32" t="s">
+      <c r="B23" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="37"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="38"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="39"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2592,14 +2592,14 @@
     <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F18" r:id="rId1" xr:uid="{3D4FCE21-E722-1C49-964A-1624F7558DA6}"/>

--- a/audit-SEO - Olivier BASQUIN.xlsx
+++ b/audit-SEO - Olivier BASQUIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierbasquin/Desktop/Olivierbasquin_4_05042021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE00358-212A-8643-A635-CE5C8316213B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28800B83-106C-2E45-8F50-0F3D2429AE97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,6 @@
   <si>
     <t>Il est  indispensable de bien renseigner la description. Il faut résumer en un minimum de mots, ce à quoi devra s'attendre l'internaute après avoir cliqué. Il ne faut donc ni survendre le contenu, ni le sous-évalué... mais plutôt jouer avec des questions.
 La description doit contenir le mot clé pour optimiser le référencement du moteur de recherche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La taille des image n'est pas adaptée à leur conteneur </t>
   </si>
   <si>
     <t>Le code HTML est constitué de balises "div" y compris pour les éléments de structure indispensables à la compréhension du site par Google</t>
@@ -365,6 +362,9 @@
   </si>
   <si>
     <t>Equivalents textuels manquant au niveau des logos "réseaux sociaux"</t>
+  </si>
+  <si>
+    <t>La taille de certaines images n'est pas adaptée.</t>
   </si>
 </sst>
 </file>
@@ -611,6 +611,24 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -628,24 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -876,7 +876,7 @@
     <col min="3" max="3" width="86.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="94.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="21" style="5" customWidth="1"/>
-    <col min="6" max="6" width="65.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="69.28515625" style="5" customWidth="1"/>
     <col min="7" max="26" width="10.5703125" style="5" customWidth="1"/>
     <col min="27" max="16384" width="11.28515625" style="5"/>
   </cols>
@@ -934,7 +934,7 @@
       <c r="D2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="31">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -949,7 +949,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>28</v>
@@ -957,7 +957,7 @@
       <c r="D3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="39"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="10" t="s">
         <v>29</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="D5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="31">
         <v>3</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -1018,7 +1018,7 @@
       <c r="D6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="10" t="s">
         <v>36</v>
       </c>
@@ -1036,7 +1036,7 @@
       <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="10" t="s">
         <v>38</v>
       </c>
@@ -1046,19 +1046,19 @@
         <v>15</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="16">
         <v>4</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
@@ -1089,10 +1089,10 @@
         <v>45</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="E10" s="19">
         <v>6</v>
@@ -1109,10 +1109,10 @@
         <v>65</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="16">
         <v>7</v>
@@ -1146,19 +1146,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="E13" s="16">
         <v>9</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="4" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1312,7 +1312,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>73</v>
@@ -1326,38 +1326,38 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="208" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="29" t="s">
+      <c r="B23" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="34" t="s">
-        <v>90</v>
+      <c r="E23" s="37"/>
+      <c r="F23" s="28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="35"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="297" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="36"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
